--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\PycharmProjects\panel_attack_project\panel_attack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\panel_attack_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2847DCF1-15FD-4C27-8974-46896BDB025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8DBE8-7E58-4C6F-8207-1B59035A1633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3179B6FB-5321-49A2-9932-84708B1AABD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3179B6FB-5321-49A2-9932-84708B1AABD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>panel</t>
   </si>
@@ -62,316 +51,420 @@
     <t>wrong_answer_3</t>
   </si>
   <si>
-    <t>אביב</t>
-  </si>
-  <si>
-    <t>מה הצבע האהוב על עומר?</t>
-  </si>
-  <si>
-    <t>איזה עונה בשנה מתן מעדיף? (קיץ חורף)</t>
-  </si>
-  <si>
-    <t>מי החבר הכי ותיק של עומר? (חבר לא בן זוג)</t>
-  </si>
-  <si>
-    <t>מה הסרט שעומר יגיד שאתם חייבים לראות מהשנה האחרונה בקולנוע?</t>
-  </si>
-  <si>
-    <t>מה הסרט הכי טוב בעולם לפי עומר?</t>
-  </si>
-  <si>
-    <t>ירוק</t>
-  </si>
-  <si>
-    <t>מרוווויק</t>
-  </si>
-  <si>
-    <t>חומות של תקווה</t>
-  </si>
-  <si>
-    <t>העונה שעומר מעדיף</t>
-  </si>
-  <si>
-    <t>טל שדה</t>
-  </si>
-  <si>
-    <t>איתי זלצמן</t>
-  </si>
-  <si>
-    <t>איתי בורובניק</t>
-  </si>
-  <si>
-    <t>מתן הגדול</t>
-  </si>
-  <si>
-    <t>הכל בכל מקום בכל זמן ובבת אחת</t>
-  </si>
-  <si>
-    <t>באטמן</t>
-  </si>
-  <si>
-    <t>בחזרה לעתיד 3</t>
-  </si>
-  <si>
-    <t>כמה ילדים מתן רוצה</t>
-  </si>
-  <si>
-    <t>3 עוד 8 שנים</t>
-  </si>
-  <si>
-    <t>4 עוד 5 שנים</t>
-  </si>
-  <si>
-    <t>5 עוד 10 שנים</t>
-  </si>
-  <si>
-    <t>עומר למד מדעי המחשב. כמה יחידות?</t>
-  </si>
-  <si>
-    <t>עומר אלוף במטבח. אמת או שקר?</t>
-  </si>
-  <si>
-    <t>אמת</t>
-  </si>
-  <si>
-    <t>שקר</t>
-  </si>
-  <si>
-    <t>עומר אוהב את הבריות. אבל את החיה הזאת הוא לא רוצה בבית</t>
-  </si>
-  <si>
-    <t>אף אחת</t>
-  </si>
-  <si>
-    <t>כלב</t>
-  </si>
-  <si>
-    <t>חתול</t>
-  </si>
-  <si>
-    <t>שרקן</t>
-  </si>
-  <si>
-    <t>אוראל</t>
-  </si>
-  <si>
-    <t>נועם</t>
-  </si>
-  <si>
-    <t>עומר מאוד אוהב שילוב ראוי בבית. הוא לא מסכים לאף אחד להיות ערום. אבל בטעות קורות טעויות. מי מהשותפים של עומר היה בטעות ערום בבית בזמן הלא נכון?</t>
-  </si>
-  <si>
-    <t>מה הדבר הכי הרפתקני שיותם אי פעם עשה</t>
-  </si>
-  <si>
-    <t>מה הדבר הכי הרפתקני שיותם ואור אי פעם עשו</t>
-  </si>
-  <si>
-    <t>לצאת עם בחורה</t>
-  </si>
-  <si>
-    <t>מעליות</t>
-  </si>
-  <si>
-    <t>רכבות</t>
-  </si>
-  <si>
-    <t>מטוסים</t>
-  </si>
-  <si>
-    <t>אווירונים</t>
-  </si>
-  <si>
-    <t>לצאת עם בחור שהיה בחורה</t>
-  </si>
-  <si>
-    <t>קורס אפיה</t>
-  </si>
-  <si>
-    <t>הטיול במזרח</t>
-  </si>
-  <si>
-    <t>תרגיל בחשבון:  כמות הטיסות של אור בשנה האחרונה + כמות הטיסות של יותם בשנה האחרונה</t>
-  </si>
-  <si>
-    <t>שש</t>
-  </si>
-  <si>
-    <t>שבע</t>
-  </si>
-  <si>
-    <t>שמונה</t>
-  </si>
-  <si>
-    <t>חמש</t>
-  </si>
-  <si>
-    <t>מה העונה הכי אהובה על אור ועל יותם</t>
-  </si>
-  <si>
-    <t>עונת החורף</t>
-  </si>
-  <si>
-    <t>עונת הNBA</t>
-  </si>
-  <si>
-    <t>עונת הקיץ</t>
-  </si>
-  <si>
-    <t>עונת הגייז</t>
-  </si>
-  <si>
-    <t>מה המתנה הכי טובה שאור קיבל אי פעם</t>
-  </si>
-  <si>
-    <t>טבעת מיותם</t>
-  </si>
-  <si>
-    <t>אייפון</t>
-  </si>
-  <si>
-    <t>שוקולדים בקורונה</t>
-  </si>
-  <si>
-    <t>מפזר חום</t>
-  </si>
-  <si>
-    <t>מה המתנה הכי טובה שיותם קיבל אי פעם</t>
-  </si>
-  <si>
-    <t>טבעת מאור</t>
-  </si>
-  <si>
-    <t>מה אור עושה אם אין לו מה לעשות</t>
-  </si>
-  <si>
-    <t>יוצר קשר עם חברים שיעבירו לו את הזמן</t>
-  </si>
-  <si>
-    <t>פורטנייט</t>
-  </si>
-  <si>
-    <t>עובד</t>
-  </si>
-  <si>
-    <t>מה יותם עושה אם אין לו מה לעשות</t>
-  </si>
-  <si>
-    <t>משחק פורטנייט וקלאש רויאל</t>
-  </si>
-  <si>
-    <t>משחק מייפל סטורי</t>
-  </si>
-  <si>
-    <t>לומד דברים של רפואה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>מה הכישרון החבוי של יותם</t>
-  </si>
-  <si>
-    <t>לחרוז בחרוזים</t>
-  </si>
-  <si>
-    <t>להקפיץ עטים</t>
-  </si>
-  <si>
-    <t>לנגן באורגנית</t>
-  </si>
-  <si>
-    <t>לאפות טארטים</t>
-  </si>
-  <si>
-    <t>מה הכישרון החבוי של אור</t>
-  </si>
-  <si>
-    <t>נגינה בכינור</t>
-  </si>
-  <si>
-    <t>נגינה בפסתר</t>
-  </si>
-  <si>
-    <t>נגינה במפוחית</t>
-  </si>
-  <si>
-    <t>לא נגינה</t>
-  </si>
-  <si>
-    <t>איך הבישולים של אור</t>
-  </si>
-  <si>
-    <t>משלשלים</t>
-  </si>
-  <si>
-    <t>מהממים</t>
-  </si>
-  <si>
-    <t>מעלפים</t>
-  </si>
-  <si>
-    <t>תפלים</t>
-  </si>
-  <si>
-    <t>איך הבישולים של יותם</t>
-  </si>
-  <si>
-    <t>גם מבשל טוב גם אופה נהדר</t>
-  </si>
-  <si>
-    <t>מבשל טעים</t>
-  </si>
-  <si>
-    <t>לא להתקרב!</t>
-  </si>
-  <si>
-    <t>אופה סבבה לא להתקרב לבישולים</t>
-  </si>
-  <si>
-    <t>האם אור שר במקלחת</t>
-  </si>
-  <si>
-    <t>כן, מאחר והוא עירום</t>
-  </si>
-  <si>
-    <t>כן, רק אם הוא עירום</t>
-  </si>
-  <si>
-    <t>לא, זה לא יאה</t>
-  </si>
-  <si>
-    <t>רק כשהוא עם יותם במקלחת</t>
-  </si>
-  <si>
-    <t>מה יותם אוהב לשתות בבוקר?</t>
-  </si>
-  <si>
-    <t>קפה שאור מתלונן להכין לו</t>
-  </si>
-  <si>
-    <t>קפה שאור מכין לו ודורש על כך קרדיט</t>
-  </si>
-  <si>
-    <t>קפה שאור מכין לו בלי לדרוש קרדיט</t>
-  </si>
-  <si>
-    <t>קפה מבית הקפה למטה</t>
-  </si>
-  <si>
-    <t>כמה חיות מחמד היו ליותם ולאור ביחד</t>
-  </si>
-  <si>
-    <t>שלוש. כולם מזן "כלב"</t>
-  </si>
-  <si>
-    <t>שלוש. חלק מזן "כלב" וחלק לא.</t>
-  </si>
-  <si>
-    <t>שתיים, חתול וכלב</t>
-  </si>
-  <si>
-    <t>אחד - הכלבה המשוגעת של אור ועוז.</t>
+    <t>באיזה עיר ניקול נולדה?
+Dans quelle ville Nicole est-elle née</t>
+  </si>
+  <si>
+    <t>ראבאט
+Rabat</t>
+  </si>
+  <si>
+    <t>קזבלנקה
+Casablanca</t>
+  </si>
+  <si>
+    <t>מרקש
+Marrakech</t>
+  </si>
+  <si>
+    <t>פריז
+Paris</t>
+  </si>
+  <si>
+    <t>איזה מים לא יזרמו בגוף של ניקול?
+Quelle eau ne coulera jamais dans le corps de Nicole ?</t>
+  </si>
+  <si>
+    <t>מי עדן
+Mei Eden</t>
+  </si>
+  <si>
+    <t>נביעות
+Neviot</t>
+  </si>
+  <si>
+    <t>אביאן
+Evian</t>
+  </si>
+  <si>
+    <t>מי ברז
+Eau du robinet</t>
+  </si>
+  <si>
+    <t>קרם ברולה
+Crème brûlée</t>
+  </si>
+  <si>
+    <t>עוגת גבינה אפויה
+Cheesecake</t>
+  </si>
+  <si>
+    <t>מוס שוקולד
+Mousse au chocolat</t>
+  </si>
+  <si>
+    <t>סלט פירות
+Salade de fruits</t>
+  </si>
+  <si>
+    <t>היכן ניקול גרה במשך הכי הרבה שנים אחרי המעבר לישראל?
+Où Nicole a-t-elle vécu le plus longtemps après son arrivée en Israël ?</t>
+  </si>
+  <si>
+    <t>ראשון לציון
+Rishon LeZion</t>
+  </si>
+  <si>
+    <t>גן יבנה
+Gan Yavne</t>
+  </si>
+  <si>
+    <t>תל אביב
+Tel Aviv</t>
+  </si>
+  <si>
+    <t>רחובות
+Rehovot</t>
+  </si>
+  <si>
+    <t>באיזה קיבוץ התגוררה ניקול כשהגיעה לארץ?
+Dans quel kibboutz Nicole a-t-elle vécu à son arrivée en Israël ?</t>
+  </si>
+  <si>
+    <t>קיבוץ נען
+Kibboutz Na’an</t>
+  </si>
+  <si>
+    <t>קיבוץ יקום
+Kibboutz Yakum</t>
+  </si>
+  <si>
+    <t>קיבוץ פלמחים
+Kibboutz Palmachim</t>
+  </si>
+  <si>
+    <t>קיבוץ געש
+Kibboutz Gaash</t>
+  </si>
+  <si>
+    <t>באיזה גיל ניקול הוציאה רישיון נהיגה?
+À quel âge Nicole a-t-elle obtenu son permis de conduire ?</t>
+  </si>
+  <si>
+    <t>כמה פעמים פרצו לבית של ניקול?
+Combien de fois a-t-on cambriolé la maison de Nicole ?</t>
+  </si>
+  <si>
+    <t>פעם אחת
+Une fois</t>
+  </si>
+  <si>
+    <t>פעמיים
+Deux fois</t>
+  </si>
+  <si>
+    <t>שלוש פעמים
+Trois fois</t>
+  </si>
+  <si>
+    <t>ארבע פעמים
+quatre fois</t>
+  </si>
+  <si>
+    <t>מה מבין הבאים לא היה מקצוע של ניקול?
+Lequel des métiers suivants Nicole n’a jamais exercé ?</t>
+  </si>
+  <si>
+    <t>שירות לקוחות גיבור סברינה
+Service client chez Gibor Sabrina</t>
+  </si>
+  <si>
+    <t>מעצבת שיער
+Coiffeuse</t>
+  </si>
+  <si>
+    <t>מזכירה רפואית בלאומית
+Secrétaire médicale à Leumit</t>
+  </si>
+  <si>
+    <t>נציגת כרטוס בארקיע
+Agent de billetterie chez Arkia</t>
+  </si>
+  <si>
+    <t>איזה מבין החיות הבאות, לא היה אצל ניקול בבית?
+Lequel de ces animaux n’a jamais été chez Nicole ?</t>
+  </si>
+  <si>
+    <t>תוכי
+Perroquet</t>
+  </si>
+  <si>
+    <t>צב
+Tortue</t>
+  </si>
+  <si>
+    <t>חתול
+Chat</t>
+  </si>
+  <si>
+    <t>שרקן
+Cochon d’Inde</t>
+  </si>
+  <si>
+    <t>בת כמה ניקול היתה כשילדה את מתן?
+Quel âge avait Nicole lorsqu'elle a donné naissance à Matan ?</t>
+  </si>
+  <si>
+    <t>מה הכישרון החבוי של ניקול?
+Quel est le talent caché de Nicole ?</t>
+  </si>
+  <si>
+    <t>עבודה עם עץ
+Travail du bois</t>
+  </si>
+  <si>
+    <t>ריקוד סטפס
+Claquettes</t>
+  </si>
+  <si>
+    <t>ציור
+Dessin</t>
+  </si>
+  <si>
+    <t>פאזלים
+Puzzles</t>
+  </si>
+  <si>
+    <t>הגילטי פלז'ר של ניקול ליד הקפה
+Quel est le “guilty pleasure” de Nicole avec son café ?</t>
+  </si>
+  <si>
+    <t>קוראסון חמאה חצוי ובפנים חמאה 
+Croissant au beurre avec encore plus de beurre</t>
+  </si>
+  <si>
+    <t>טירמיסו לימון
+Tiramisu au citron</t>
+  </si>
+  <si>
+    <t>פאי תפוחים עם קרמל
+Tarte aux pommes et caramel</t>
+  </si>
+  <si>
+    <t>פחזניות קרם וניל
+Choux à la crème vanille</t>
+  </si>
+  <si>
+    <t>איזה סוג תלמידה הייתה ניקול בתיכון?
+Quel type d’élève Nicole était-elle au lycée ?</t>
+  </si>
+  <si>
+    <t>עושה בעיות
+Turbulente</t>
+  </si>
+  <si>
+    <t>שקדנית וחרוצה
+Sérieuse et travailleuse</t>
+  </si>
+  <si>
+    <t>ציונים גבוהים אבל התנהגות לא משהו
+Bonnes notes mais comportement moyen</t>
+  </si>
+  <si>
+    <t>חנונית לגמרי אבל ציונים לא משהו
+Intello mais notes moyennes</t>
+  </si>
+  <si>
+    <t>אם ניקול תעבור לגור בחו"ל, איפה זה יהיה?
+Si Nicole déménage à l’étranger, où ira-t-elle ?</t>
+  </si>
+  <si>
+    <t>ברצלונה
+Barcelone</t>
+  </si>
+  <si>
+    <t>מרוקו
+Maroc</t>
+  </si>
+  <si>
+    <t>צרפת
+France</t>
+  </si>
+  <si>
+    <t>יפן
+Japon</t>
+  </si>
+  <si>
+    <t>מה המתנה הכי טובה שניקול קיבלה
+Quel est le plus beau cadeau que Nicole ait reçu ?</t>
+  </si>
+  <si>
+    <t>את המשפחה שלה, ברור
+Sa famille, évidemment</t>
+  </si>
+  <si>
+    <t>את הגירושים, ברור
+Son divorce, évidemment</t>
+  </si>
+  <si>
+    <t>טיסה לישראל, ברור
+Son billet pour Israël</t>
+  </si>
+  <si>
+    <t>תכשיט יוקרתי
+Un bijou de luxe</t>
+  </si>
+  <si>
+    <t>אם ניקול תזכה בלוטו, איך תבזבז את כספי הזכייה?
+Si Nicole gagne au loto, comment dépensera-t-elle l’argent ?</t>
+  </si>
+  <si>
+    <t>קודם כל אוטו ואחר כך נסיעות לחו"ל
+D’abord une voiture, puis des voyages</t>
+  </si>
+  <si>
+    <t>קודם כל קרן חיסכון ואחר כך בגדים
+D’abord épargne, puis shopping</t>
+  </si>
+  <si>
+    <t>קודם כל נדל"ן ואז אוטו
+D’abord immobilier, puis voiture</t>
+  </si>
+  <si>
+    <t>קודם כל הפלגה ארוכה ואז נדל"ן
+D’abord une longue croisière, puis immobilier</t>
+  </si>
+  <si>
+    <t>מה היה המקצוע הראשון של ניקול כשרק הגיעה לארץ?
+Quel a été le premier métier de Nicole ?</t>
+  </si>
+  <si>
+    <t>מוכרת בחנות בגדים
+Vendeuse</t>
+  </si>
+  <si>
+    <t>פקידה
+Employée de bureau</t>
+  </si>
+  <si>
+    <t>בייביסיטר
+Baby-sitter</t>
+  </si>
+  <si>
+    <t>על מה הכי הרבה העירו לניקול בתעודה בבית ספר?
+Sur quoi faisait-on le plus de remarques à Nicole à l’école ?</t>
+  </si>
+  <si>
+    <t>חוסר ריכוז
+Manque de concentration</t>
+  </si>
+  <si>
+    <t>פטפטנות
+Bavardage</t>
+  </si>
+  <si>
+    <t>איחורים
+Retards</t>
+  </si>
+  <si>
+    <t>שלמות יתר - פרפקציוניזם
+Perfectionnisme</t>
+  </si>
+  <si>
+    <t>כמה שנים ניקול מתנדבת באיחוד והצלה?
+Depuis combien d'années Nicole est-elle bénévole chez Ichud et Hatzala ?</t>
+  </si>
+  <si>
+    <t>כמה שנים יש בין ניקול לאח שלה מישל?
+Quelle est la différence d’âge entre Nicole et son frère Michel ?</t>
+  </si>
+  <si>
+    <t>מה ניקול תמיד מאבדת?
+Qu’est-ce que Nicole perd toujours ?</t>
+  </si>
+  <si>
+    <t>את הראש
+La tête</t>
+  </si>
+  <si>
+    <t>מפתחות
+Clés</t>
+  </si>
+  <si>
+    <t>ארנק
+Portefeuille</t>
+  </si>
+  <si>
+    <t>משקפי שמש
+Lunettes de soleil</t>
+  </si>
+  <si>
+    <t>מה ניקול תעדיף?
+Que préférera Nicole ?</t>
+  </si>
+  <si>
+    <t>טיול בטבע
+Balade dans la nature</t>
+  </si>
+  <si>
+    <t>מסיבה עד 2 בלילה
+Fête jusqu’à 2h du matin</t>
+  </si>
+  <si>
+    <t>קניות בקניון
+Shopping au centre commercial</t>
+  </si>
+  <si>
+    <t>ערב שקט בבית
+Soirée tranquille à la maison</t>
+  </si>
+  <si>
+    <t>מה ניקול בחיים לא תעשה
+Que Nicole ne fera jamais ?</t>
+  </si>
+  <si>
+    <t>צניחה חופשית
+Saut en parachute</t>
+  </si>
+  <si>
+    <t>מירוץ מכוניות
+Course automobile</t>
+  </si>
+  <si>
+    <t>אלכוהול
+Boire de l’alcool</t>
+  </si>
+  <si>
+    <t>רכבת הרים בלונה פארק
+Montagnes russes</t>
+  </si>
+  <si>
+    <t>כמה שנים יש בין ניקול לאחותה סנדרה?
+Quelle est la différence d’âge entre Nicole et sa sœur Sandra ?</t>
+  </si>
+  <si>
+    <t>שמונה שנים
+Huit ans</t>
+  </si>
+  <si>
+    <t>חמש שנים
+Cinq ans</t>
+  </si>
+  <si>
+    <t>שנתיים
+Deux ans</t>
+  </si>
+  <si>
+    <t>שנה
+Un an</t>
+  </si>
+  <si>
+    <t>כמה כלבים היו לניקול?
+Combien de chiens Nicole a-t-elle eus ?</t>
+  </si>
+  <si>
+    <t>לבדוק - איזה קינוח ניקול הכי אוהבת?
+Quel dessert Nicole préfère-t-elle le plus ?</t>
   </si>
 </sst>
 </file>
@@ -413,8 +506,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,9 +529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -473,7 +569,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -579,7 +675,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -721,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,21 +828,21 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -772,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -782,23 +878,23 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -808,23 +904,23 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -834,23 +930,23 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -860,23 +956,23 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -886,23 +982,23 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>61</v>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -912,23 +1008,23 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -938,23 +1034,23 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>68</v>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -964,23 +1060,23 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>72</v>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -990,23 +1086,23 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1016,23 +1112,23 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>82</v>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1042,23 +1138,23 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1068,23 +1164,23 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>92</v>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1094,23 +1190,23 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>97</v>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1120,23 +1216,23 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>102</v>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1146,23 +1242,23 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>107</v>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1172,14 +1268,23 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1189,17 +1294,23 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1209,23 +1320,23 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1235,20 +1346,23 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1258,20 +1372,23 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1281,20 +1398,23 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1304,20 +1424,23 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1327,17 +1450,23 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1347,23 +1476,23 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1373,17 +1502,20 @@
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
